--- a/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_oper_status_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_component_test_hw_component_oper_status_logs.xlsx
@@ -518,7 +518,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:1c385c0f-458d-4d66-8441-5c1890ac6251"
+&lt;rpc-reply message-id="urn:uuid:257eacb1-8c41-4793-9149-6819f2fc1093"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
